--- a/ope.ed.gov/2004/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2004.xlsx
+++ b/ope.ed.gov/2004/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2004.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1465,52 +1462,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2004.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>459.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1521,13 +1560,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>459.0</v>
@@ -1545,16 +1584,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O3">
         <v>0.0</v>
@@ -1568,13 +1607,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>459.0</v>
@@ -1598,10 +1637,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M4">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N4">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O4">
         <v>0.0</v>
@@ -1612,19 +1651,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>459.0</v>
+        <v>611.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1659,19 +1698,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>611.0</v>
+        <v>2875.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -1709,13 +1748,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
         <v>2875.0</v>
@@ -1756,13 +1795,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>2875.0</v>
@@ -1803,13 +1842,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>2875.0</v>
@@ -1850,13 +1889,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>2875.0</v>
@@ -1897,13 +1936,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>2875.0</v>
@@ -1944,13 +1983,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>2875.0</v>
@@ -1991,13 +2030,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>2875.0</v>
@@ -2038,13 +2077,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
         <v>2875.0</v>
@@ -2085,13 +2124,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
         <v>2875.0</v>
@@ -2132,13 +2171,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
         <v>2875.0</v>
@@ -2176,19 +2215,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>2875.0</v>
+        <v>369.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2223,19 +2262,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B18">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>369.0</v>
+        <v>789.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2270,19 +2309,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B19">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>789.0</v>
+        <v>2719.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2317,19 +2356,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B20">
-        <v>231420.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>2719.0</v>
+        <v>201.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2364,19 +2403,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B21">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
-      </c>
-      <c s="1" r="F21">
-        <v>201.0</v>
+        <v>54</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -2411,16 +2447,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B22">
-        <v>445762.0</v>
+        <v>445595.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c s="1" r="F22">
+        <v>156.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2455,19 +2494,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B23">
-        <v>445595.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>156.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2502,19 +2541,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B24">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>202.0</v>
+        <v>83.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2549,19 +2588,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>83.0</v>
+        <v>3942.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2599,13 +2638,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
         <v>3942.0</v>
@@ -2646,13 +2685,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
         <v>3942.0</v>
@@ -2690,19 +2729,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>3942.0</v>
+        <v>814.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2737,19 +2776,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>814.0</v>
+        <v>452.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2784,19 +2823,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233356.0</v>
+        <v>231572.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>452.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2831,19 +2870,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231572.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>62.0</v>
+        <v>1532.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2878,19 +2917,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>1532.0</v>
+        <v>470.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2925,19 +2964,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B33">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>470.0</v>
+        <v>455.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2972,19 +3011,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>455.0</v>
+        <v>179.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -3002,13 +3041,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L34">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M34">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N34">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O34">
         <v>0.0</v>
@@ -3019,19 +3058,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B35">
-        <v>441858.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>179.0</v>
+        <v>4480.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3049,13 +3088,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L35">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N35">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O35">
         <v>0.0</v>
@@ -3069,13 +3108,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
         <v>4480.0</v>
@@ -3116,13 +3155,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
         <v>4480.0</v>
@@ -3160,19 +3199,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>4480.0</v>
+        <v>211.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3207,19 +3246,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B39">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>211.0</v>
+        <v>278.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3254,19 +3293,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B40">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>278.0</v>
+        <v>406.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3301,19 +3340,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B41">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>406.0</v>
+        <v>240.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -3348,19 +3387,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B42">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
-        <v>240.0</v>
+        <v>107.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -3395,19 +3434,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B43">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>107.0</v>
+        <v>569.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -3442,19 +3481,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B44">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>569.0</v>
+        <v>158.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -3478,7 +3517,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O44">
         <v>0.0</v>
@@ -3489,19 +3528,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B45">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>158.0</v>
+        <v>4681.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3510,7 +3549,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J45">
         <v>0.0</v>
@@ -3519,13 +3558,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L45">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="M45">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="N45">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O45">
         <v>0.0</v>
@@ -3536,28 +3575,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B46">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>4681.0</v>
+        <v>7575.0</v>
       </c>
       <c s="1" r="G46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H46">
         <v>0.0</v>
       </c>
       <c s="1" r="I46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J46">
         <v>0.0</v>
@@ -3566,13 +3605,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L46">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M46">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N46">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O46">
         <v>0.0</v>
@@ -3583,22 +3622,22 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B47">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>7575.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G47">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H47">
         <v>0.0</v>
@@ -3613,13 +3652,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L47">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M47">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N47">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O47">
         <v>0.0</v>
@@ -3630,19 +3669,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377403.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
-      </c>
-      <c s="1" r="F48">
-        <v>45.0</v>
+        <v>108</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3677,16 +3713,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B49">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c s="1" r="F49">
+        <v>1487.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -3721,19 +3760,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B50">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>1487.0</v>
+        <v>4060.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3768,19 +3807,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B51">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>4060.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -3815,19 +3854,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>123.0</v>
+        <v>818.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -3845,13 +3884,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M52">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N52">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O52">
         <v>0.0</v>
@@ -3865,13 +3904,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
         <v>818.0</v>
@@ -3892,13 +3931,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L53">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N53">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O53">
         <v>0.0</v>
@@ -3909,19 +3948,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B54">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>818.0</v>
+        <v>1297.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -3956,19 +3995,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B55">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>1297.0</v>
+        <v>1017.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -3989,7 +4028,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M55">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N55">
         <v>0.0</v>
@@ -4003,19 +4042,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B56">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
-        <v>1017.0</v>
+        <v>689.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -4036,7 +4075,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M56">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N56">
         <v>0.0</v>
@@ -4050,19 +4089,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B57">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
-        <v>689.0</v>
+        <v>879.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -4100,13 +4139,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
         <v>879.0</v>
@@ -4144,19 +4183,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B59">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
-        <v>879.0</v>
+        <v>4759.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -4194,13 +4233,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
         <v>4759.0</v>
@@ -4241,13 +4280,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
         <v>4759.0</v>
@@ -4288,13 +4327,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
         <v>4759.0</v>
@@ -4335,13 +4374,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
         <v>4759.0</v>
@@ -4382,13 +4421,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
         <v>4759.0</v>
@@ -4429,13 +4468,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
         <v>4759.0</v>
@@ -4476,13 +4515,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
         <v>4759.0</v>
@@ -4523,13 +4562,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
         <v>4759.0</v>
@@ -4567,19 +4606,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B68">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
-        <v>4759.0</v>
+        <v>306.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -4614,19 +4653,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B69">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
-        <v>306.0</v>
+        <v>1028.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -4661,19 +4700,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
-        <v>1028.0</v>
+        <v>99.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -4688,10 +4727,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K70">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L70">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M70">
         <v>0.0</v>
@@ -4708,19 +4747,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B71">
-        <v>444282.0</v>
+        <v>437149.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
-      </c>
-      <c s="1" r="F71">
-        <v>99.0</v>
+        <v>154</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -4735,10 +4771,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K71">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L71">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M71">
         <v>0.0</v>
@@ -4755,16 +4791,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B72">
-        <v>437149.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c s="1" r="F72">
+        <v>203.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -4799,19 +4838,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B73">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
-        <v>203.0</v>
+        <v>767.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -4846,19 +4885,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B74">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
-        <v>767.0</v>
+        <v>118.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -4893,19 +4932,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B75">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
-        <v>118.0</v>
+        <v>658.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -4940,19 +4979,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B76">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
-        <v>658.0</v>
+        <v>942.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -4987,19 +5026,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B77">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
-        <v>942.0</v>
+        <v>232.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -5034,19 +5073,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B78">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
-        <v>232.0</v>
+        <v>109.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -5081,19 +5120,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B79">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
-        <v>109.0</v>
+        <v>28874.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -5128,19 +5167,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B80">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
-        <v>28874.0</v>
+        <v>4799.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -5178,13 +5217,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
         <v>4799.0</v>
@@ -5222,19 +5261,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B82">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
-        <v>4799.0</v>
+        <v>304.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -5269,19 +5308,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B83">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
-        <v>304.0</v>
+        <v>1082.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -5316,19 +5355,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B84">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
-        <v>1082.0</v>
+        <v>6154.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -5343,16 +5382,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K84">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L84">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M84">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N84">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O84">
         <v>0.0</v>
@@ -5366,13 +5405,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
         <v>6154.0</v>
@@ -5390,16 +5429,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K85">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L85">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M85">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N85">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O85">
         <v>0.0</v>
@@ -5413,13 +5452,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F86">
         <v>6154.0</v>
@@ -5446,7 +5485,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N86">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O86">
         <v>0.0</v>
@@ -5457,19 +5496,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B87">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F87">
-        <v>6154.0</v>
+        <v>115.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -5493,7 +5532,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N87">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O87">
         <v>0.0</v>
@@ -5504,19 +5543,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B88">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F88">
-        <v>115.0</v>
+        <v>492.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -5551,19 +5590,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B89">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
-        <v>492.0</v>
+        <v>166.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -5578,7 +5617,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K89">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L89">
         <v>0.0</v>
@@ -5587,7 +5626,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N89">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O89">
         <v>0.0</v>
@@ -5598,19 +5637,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B90">
-        <v>377421.0</v>
+        <v>232292.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>166.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -5625,7 +5664,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K90">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L90">
         <v>0.0</v>
@@ -5634,7 +5673,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N90">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O90">
         <v>0.0</v>
@@ -5645,19 +5684,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232292.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
-        <v>40.0</v>
+        <v>1056.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -5692,19 +5731,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
-      </c>
-      <c s="1" r="F92">
-        <v>1056.0</v>
+        <v>196</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -5719,16 +5755,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K92">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L92">
         <v>0.0</v>
       </c>
       <c s="1" r="M92">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N92">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O92">
         <v>0.0</v>
@@ -5739,16 +5775,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B93">
-        <v>445869.0</v>
+        <v>418977.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c s="1" r="F93">
+        <v>12.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -5763,16 +5802,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K93">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L93">
         <v>0.0</v>
       </c>
       <c s="1" r="M93">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N93">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O93">
         <v>0.0</v>
@@ -5783,19 +5822,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B94">
-        <v>418977.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
-        <v>12.0</v>
+        <v>269.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -5830,19 +5869,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B95">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F95">
-        <v>269.0</v>
+        <v>662.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -5877,19 +5916,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B96">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F96">
-        <v>662.0</v>
+        <v>371.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -5924,19 +5963,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B97">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
-        <v>371.0</v>
+        <v>626.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -5971,19 +6010,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B98">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
-        <v>626.0</v>
+        <v>11678.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -5992,25 +6031,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I98">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J98">
         <v>0.0</v>
       </c>
       <c s="1" r="K98">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L98">
         <v>0.0</v>
       </c>
       <c s="1" r="M98">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N98">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="O98">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -6021,13 +6060,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
         <v>11678.0</v>
@@ -6039,25 +6078,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I99">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J99">
         <v>0.0</v>
       </c>
       <c s="1" r="K99">
-        <v>4.0</v>
+        <v>50.0</v>
       </c>
       <c s="1" r="L99">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="M99">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
       <c s="1" r="N99">
-        <v>7.0</v>
+        <v>72.0</v>
       </c>
       <c s="1" r="O99">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
@@ -6068,13 +6107,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
         <v>11678.0</v>
@@ -6086,22 +6125,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I100">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J100">
         <v>0.0</v>
       </c>
       <c s="1" r="K100">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L100">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M100">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N100">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O100">
         <v>0.0</v>
@@ -6112,19 +6151,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B101">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
-        <v>11678.0</v>
+        <v>16108.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -6162,13 +6201,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
         <v>16108.0</v>
@@ -6209,13 +6248,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
         <v>16108.0</v>
@@ -6253,19 +6292,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
-        <v>16108.0</v>
+        <v>744.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -6286,10 +6325,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M104">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N104">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O104">
         <v>0.0</v>
@@ -6303,13 +6342,13 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
         <v>744.0</v>
@@ -6333,10 +6372,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M105">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N105">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O105">
         <v>0.0</v>
@@ -6347,19 +6386,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B106">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
-        <v>744.0</v>
+        <v>6092.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -6380,13 +6419,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M106">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N106">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O106">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="107">
@@ -6397,13 +6436,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
         <v>6092.0</v>
@@ -6430,10 +6469,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N107">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O107">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -6444,13 +6483,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
         <v>6092.0</v>
@@ -6488,19 +6527,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B109">
-        <v>232450.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F109">
-        <v>6092.0</v>
+        <v>399.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -6535,19 +6574,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
-        <v>399.0</v>
+        <v>10475.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -6582,19 +6621,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B111">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
-        <v>10475.0</v>
+        <v>4289.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -6603,7 +6642,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I111">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J111">
         <v>0.0</v>
@@ -6632,13 +6671,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
         <v>4289.0</v>
@@ -6650,7 +6689,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I112">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J112">
         <v>0.0</v>
@@ -6676,19 +6715,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
-        <v>4289.0</v>
+        <v>5416.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -6726,13 +6765,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
         <v>5416.0</v>
@@ -6770,19 +6809,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B115">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
-        <v>5416.0</v>
+        <v>2248.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -6817,19 +6856,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B116">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
-        <v>2248.0</v>
+        <v>169.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -6864,19 +6903,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B117">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
-        <v>169.0</v>
+        <v>1718.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -6891,13 +6930,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K117">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L117">
         <v>0.0</v>
       </c>
       <c s="1" r="M117">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N117">
         <v>0.0</v>
@@ -6911,19 +6950,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B118">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
-        <v>1718.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -6932,22 +6971,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I118">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J118">
         <v>0.0</v>
       </c>
       <c s="1" r="K118">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L118">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M118">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N118">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O118">
         <v>0.0</v>
@@ -6958,19 +6997,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B119">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
-        <v>3717.0</v>
+        <v>1295.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -6979,22 +7018,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I119">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J119">
         <v>0.0</v>
       </c>
       <c s="1" r="K119">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L119">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M119">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N119">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O119">
         <v>0.0</v>
@@ -7008,13 +7047,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
         <v>1295.0</v>
@@ -7055,13 +7094,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
         <v>1295.0</v>
@@ -7099,19 +7138,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B122">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
-        <v>1295.0</v>
+        <v>1324.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -7149,13 +7188,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
         <v>1324.0</v>
@@ -7196,13 +7235,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
         <v>1324.0</v>
@@ -7240,19 +7279,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B125">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
-        <v>1324.0</v>
+        <v>237.0</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -7290,13 +7329,13 @@
         <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F126">
         <v>237.0</v>
@@ -7334,19 +7373,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B127">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F127">
-        <v>237.0</v>
+        <v>2906.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -7381,19 +7420,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232788.0</v>
+        <v>419004.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
-        <v>2906.0</v>
+        <v>152.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -7428,19 +7467,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B129">
-        <v>419004.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F129">
-        <v>152.0</v>
+        <v>4103.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -7475,19 +7514,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B130">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F130">
-        <v>4103.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
@@ -7522,19 +7561,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B131">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -7569,19 +7608,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B132">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
-        <v>56.0</v>
+        <v>6165.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -7596,13 +7635,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L132">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M132">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N132">
         <v>0.0</v>
@@ -7616,19 +7655,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
-        <v>6165.0</v>
+        <v>37392.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -7643,13 +7682,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L133">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M133">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N133">
         <v>0.0</v>
@@ -7666,13 +7705,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
         <v>37392.0</v>
@@ -7713,13 +7752,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
         <v>37392.0</v>
@@ -7731,7 +7770,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I135">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J135">
         <v>0.0</v>
@@ -7760,13 +7799,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
         <v>37392.0</v>
@@ -7793,7 +7832,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N136">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O136">
         <v>0.0</v>
@@ -7807,13 +7846,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
         <v>37392.0</v>
@@ -7825,7 +7864,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I137">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J137">
         <v>0.0</v>
@@ -7840,7 +7879,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N137">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O137">
         <v>0.0</v>
@@ -7854,13 +7893,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F138">
         <v>37392.0</v>
@@ -7898,19 +7937,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B139">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
-        <v>37392.0</v>
+        <v>20595.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -7931,7 +7970,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M139">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N139">
         <v>0.0</v>
@@ -7945,19 +7984,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>20595.0</v>
+        <v>3341.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -7978,10 +8017,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M140">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N140">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O140">
         <v>0.0</v>
@@ -7992,19 +8031,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B141">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
-        <v>3341.0</v>
+        <v>1468.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -8028,7 +8067,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N141">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O141">
         <v>0.0</v>
@@ -8042,13 +8081,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F142">
         <v>1468.0</v>
@@ -8086,19 +8125,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F143">
-        <v>1468.0</v>
+        <v>4358.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -8119,7 +8158,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M143">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N143">
         <v>0.0</v>
@@ -8133,19 +8172,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B144">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
-        <v>4358.0</v>
+        <v>9329.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -8166,7 +8205,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M144">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N144">
         <v>0.0</v>
@@ -8180,19 +8219,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F145">
-        <v>9329.0</v>
+        <v>732.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -8213,7 +8252,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M145">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N145">
         <v>0.0</v>
@@ -8227,19 +8266,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F146">
-        <v>732.0</v>
+        <v>1126.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -8260,7 +8299,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M146">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N146">
         <v>0.0</v>
@@ -8274,19 +8313,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B147">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
-        <v>1126.0</v>
+        <v>2691.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -8324,13 +8363,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
         <v>2691.0</v>
@@ -8368,19 +8407,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F149">
-        <v>2691.0</v>
+        <v>3444.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -8418,13 +8457,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F150">
         <v>3444.0</v>
@@ -8462,19 +8501,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B151">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>3444.0</v>
+        <v>1409.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8509,19 +8548,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
-        <v>1409.0</v>
+        <v>436.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -8556,19 +8595,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B153">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
-        <v>436.0</v>
+        <v>155.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -8603,19 +8642,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233408.0</v>
+        <v>435213.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
-      </c>
-      <c s="1" r="F154">
-        <v>155.0</v>
+        <v>320</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -8650,16 +8686,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B155">
-        <v>435213.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c s="1" r="F155">
+        <v>1850.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -8668,7 +8707,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I155">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J155">
         <v>0.0</v>
@@ -8677,13 +8716,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L155">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M155">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N155">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O155">
         <v>0.0</v>
@@ -8694,19 +8733,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
-        <v>1850.0</v>
+        <v>60.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -8715,25 +8754,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I156">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J156">
         <v>0.0</v>
       </c>
       <c s="1" r="K156">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L156">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M156">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N156">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O156">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="157">
@@ -8741,19 +8780,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B157">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
-        <v>60.0</v>
+        <v>627.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -8768,19 +8807,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K157">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L157">
         <v>0.0</v>
       </c>
       <c s="1" r="M157">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N157">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O157">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -8788,19 +8827,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
-        <v>627.0</v>
+        <v>833.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -8835,19 +8874,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B159">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F159">
-        <v>833.0</v>
+        <v>249.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -8882,19 +8921,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B160">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F160">
-        <v>249.0</v>
+        <v>3000.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -8929,19 +8968,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F161">
-        <v>3000.0</v>
+        <v>340.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -8976,19 +9015,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B162">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F162">
-        <v>340.0</v>
+        <v>581.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -8997,7 +9036,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I162">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J162">
         <v>0.0</v>
@@ -9023,19 +9062,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
-        <v>581.0</v>
+        <v>194.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -9044,7 +9083,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I163">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J163">
         <v>0.0</v>
@@ -9059,7 +9098,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N163">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O163">
         <v>0.0</v>
@@ -9070,19 +9109,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F164">
-        <v>194.0</v>
+        <v>4686.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -9106,7 +9145,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N164">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O164">
         <v>0.0</v>
@@ -9117,19 +9156,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F165">
-        <v>4686.0</v>
+        <v>3835.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -9164,19 +9203,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
-        <v>3835.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -9211,19 +9250,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B167">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
-        <v>140.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -9258,19 +9297,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
-        <v>32.0</v>
+        <v>385.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -9279,22 +9318,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I168">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J168">
         <v>0.0</v>
       </c>
       <c s="1" r="K168">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L168">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M168">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N168">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="O168">
         <v>0.0</v>
@@ -9305,19 +9344,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B169">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
-        <v>385.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -9326,22 +9365,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I169">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J169">
         <v>0.0</v>
       </c>
       <c s="1" r="K169">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L169">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M169">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N169">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O169">
         <v>0.0</v>
@@ -9352,19 +9391,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B170">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
-      </c>
-      <c s="1" r="F170">
-        <v>54.0</v>
+        <v>352</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -9399,16 +9435,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B171">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
+      </c>
+      <c s="1" r="F171">
+        <v>738.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -9443,19 +9482,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
-        <v>738.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -9490,19 +9529,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F173">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -9526,7 +9565,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N173">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O173">
         <v>0.0</v>
@@ -9537,19 +9576,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B174">
-        <v>444884.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F174">
-        <v>7.0</v>
+        <v>316.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -9564,7 +9603,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K174">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L174">
         <v>0.0</v>
@@ -9573,7 +9612,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N174">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O174">
         <v>0.0</v>
@@ -9584,19 +9623,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B175">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
-        <v>316.0</v>
+        <v>958.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -9611,7 +9650,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K175">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L175">
         <v>0.0</v>
@@ -9631,19 +9670,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B176">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
-        <v>958.0</v>
+        <v>1836.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -9678,19 +9717,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F177">
-        <v>1836.0</v>
+        <v>8515.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -9711,7 +9750,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M177">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N177">
         <v>0.0</v>
@@ -9725,19 +9764,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
-        <v>8515.0</v>
+        <v>22691.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -9746,7 +9785,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I178">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J178">
         <v>0.0</v>
@@ -9755,13 +9794,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L178">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="M178">
         <v>1.0</v>
       </c>
       <c s="1" r="N178">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O178">
         <v>0.0</v>
@@ -9775,13 +9814,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
         <v>22691.0</v>
@@ -9793,7 +9832,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I179">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J179">
         <v>0.0</v>
@@ -9802,13 +9841,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L179">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M179">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N179">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O179">
         <v>0.0</v>
@@ -9822,13 +9861,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
         <v>22691.0</v>
@@ -9869,13 +9908,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
         <v>22691.0</v>
@@ -9893,7 +9932,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K181">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L181">
         <v>0.0</v>
@@ -9902,7 +9941,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N181">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O181">
         <v>0.0</v>
@@ -9916,13 +9955,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
         <v>22691.0</v>
@@ -9940,16 +9979,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K182">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L182">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M182">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N182">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O182">
         <v>0.0</v>
@@ -9960,19 +9999,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
-        <v>22691.0</v>
+        <v>93.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -9990,10 +10029,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L183">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M183">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N183">
         <v>0.0</v>
@@ -10007,19 +10046,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B184">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
-        <v>93.0</v>
+        <v>391.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -10040,7 +10079,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M184">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N184">
         <v>0.0</v>
@@ -10057,13 +10096,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
         <v>391.0</v>
@@ -10087,7 +10126,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M185">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="N185">
         <v>0.0</v>
@@ -10101,19 +10140,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B186">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
-        <v>391.0</v>
+        <v>4729.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -10134,7 +10173,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M186">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N186">
         <v>0.0</v>
@@ -10148,19 +10187,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B187">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
-        <v>4729.0</v>
+        <v>1266.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -10195,19 +10234,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B188">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
-      </c>
-      <c s="1" r="F188">
-        <v>1266.0</v>
+        <v>388</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -10242,16 +10278,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B189">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c s="1" r="F189">
+        <v>4475.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -10286,19 +10325,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
-        <v>4475.0</v>
+        <v>92.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -10333,19 +10372,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B191">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
-        <v>92.0</v>
+        <v>23341.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -10363,7 +10402,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L191">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M191">
         <v>0.0</v>
@@ -10383,13 +10422,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
         <v>23341.0</v>
@@ -10410,7 +10449,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L192">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M192">
         <v>0.0</v>
@@ -10430,13 +10469,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
         <v>23341.0</v>
@@ -10463,7 +10502,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N193">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O193">
         <v>0.0</v>
@@ -10477,13 +10516,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
         <v>23341.0</v>
@@ -10510,7 +10549,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N194">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O194">
         <v>0.0</v>
@@ -10524,13 +10563,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D195">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F195">
         <v>23341.0</v>
@@ -10571,13 +10610,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D196">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F196">
         <v>23341.0</v>
@@ -10618,13 +10657,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D197">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F197">
         <v>23341.0</v>
@@ -10662,19 +10701,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B198">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D198">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F198">
-        <v>23341.0</v>
+        <v>26.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -10709,19 +10748,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B199">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F199">
-        <v>26.0</v>
+        <v>28303.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -10736,7 +10775,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K199">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L199">
         <v>0.0</v>
@@ -10759,13 +10798,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D200">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F200">
         <v>28303.0</v>
@@ -10783,7 +10822,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K200">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L200">
         <v>0.0</v>
@@ -10792,7 +10831,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N200">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O200">
         <v>0.0</v>
@@ -10803,19 +10842,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B201">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D201">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F201">
-        <v>28303.0</v>
+        <v>2299.0</v>
       </c>
       <c s="1" r="G201">
         <v>0.0</v>
@@ -10830,16 +10869,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K201">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L201">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M201">
         <v>0.0</v>
       </c>
       <c s="1" r="N201">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O201">
         <v>0.0</v>
@@ -10850,19 +10889,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B202">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D202">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F202">
-        <v>2299.0</v>
+        <v>1149.0</v>
       </c>
       <c s="1" r="G202">
         <v>0.0</v>
@@ -10877,10 +10916,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K202">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L202">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M202">
         <v>0.0</v>
@@ -10897,19 +10936,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B203">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D203">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F203">
-        <v>1149.0</v>
+        <v>1362.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
@@ -10944,19 +10983,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B204">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D204">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F204">
-        <v>1362.0</v>
+        <v>27619.0</v>
       </c>
       <c s="1" r="G204">
         <v>0.0</v>
@@ -10974,13 +11013,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L204">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M204">
         <v>0.0</v>
       </c>
       <c s="1" r="N204">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O204">
         <v>0.0</v>
@@ -10994,13 +11033,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D205">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F205">
         <v>27619.0</v>
@@ -11021,13 +11060,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L205">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M205">
         <v>0.0</v>
       </c>
       <c s="1" r="N205">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O205">
         <v>0.0</v>
@@ -11041,13 +11080,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D206">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F206">
         <v>27619.0</v>
@@ -11088,13 +11127,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D207">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F207">
         <v>27619.0</v>
@@ -11135,13 +11174,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D208">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F208">
         <v>27619.0</v>
@@ -11182,13 +11221,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D209">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F209">
         <v>27619.0</v>
@@ -11229,13 +11268,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D210">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F210">
         <v>27619.0</v>
@@ -11276,13 +11315,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D211">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F211">
         <v>27619.0</v>
@@ -11320,19 +11359,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B212">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D212">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F212">
-        <v>27619.0</v>
+        <v>113.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -11367,19 +11406,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B213">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F213">
-        <v>113.0</v>
+        <v>148.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -11414,19 +11453,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B214">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F214">
-        <v>148.0</v>
+        <v>4859.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -11461,19 +11500,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B215">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F215">
-        <v>4859.0</v>
+        <v>1777.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -11508,19 +11547,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B216">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>443</v>
-      </c>
-      <c s="1" r="F216">
-        <v>1777.0</v>
+        <v>444</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -11555,16 +11591,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B217">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c s="1" r="F217">
+        <v>1442.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -11599,19 +11638,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B218">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F218">
-        <v>1442.0</v>
+        <v>8361.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -11632,13 +11671,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M218">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N218">
         <v>0.0</v>
       </c>
       <c s="1" r="O218">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="219">
@@ -11646,19 +11685,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F219">
-        <v>8361.0</v>
+        <v>128.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -11673,19 +11712,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K219">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L219">
         <v>0.0</v>
       </c>
       <c s="1" r="M219">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N219">
         <v>0.0</v>
       </c>
       <c s="1" r="O219">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -11693,19 +11732,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B220">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F220">
-        <v>128.0</v>
+        <v>97.0</v>
       </c>
       <c s="1" r="G220">
         <v>0.0</v>
@@ -11720,13 +11759,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K220">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L220">
         <v>0.0</v>
       </c>
       <c s="1" r="M220">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N220">
         <v>0.0</v>
@@ -11740,19 +11779,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B221">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F221">
-        <v>97.0</v>
+        <v>2174.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -11787,19 +11826,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B222">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F222">
-        <v>2174.0</v>
+        <v>142.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -11834,19 +11873,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B223">
-        <v>234225.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D223">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F223">
-        <v>142.0</v>
+        <v>228.0</v>
       </c>
       <c s="1" r="G223">
         <v>0.0</v>
@@ -11881,19 +11920,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B224">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D224">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F224">
-        <v>228.0</v>
+        <v>2700.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -11920,53 +11959,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O224">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c s="1" r="A225">
-        <v>2004.0</v>
-      </c>
-      <c s="1" r="B225">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C225">
-        <v>460</v>
-      </c>
-      <c s="1" r="D225">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E225">
-        <v>461</v>
-      </c>
-      <c s="1" r="F225">
-        <v>2700.0</v>
-      </c>
-      <c s="1" r="G225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O225">
         <v>0.0</v>
       </c>
     </row>
